--- a/portfolio-optimization/data/raw/equities/dev_ex_us/fid_gro_exus_etf.xlsx
+++ b/portfolio-optimization/data/raw/equities/dev_ex_us/fid_gro_exus_etf.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28928"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9414996-5C14-473F-8A0C-7686ADC63BAD}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08D76A9A-E012-4F1A-8D30-36FD02BE480C}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -42,20 +42,44 @@
     <t>Name</t>
   </si>
   <si>
+    <t>FIGI</t>
+  </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>Fidelity Funds - European Dynamic Growth Fund</t>
+  </si>
+  <si>
+    <t>BBG0062S03Q7</t>
+  </si>
+  <si>
+    <t>FFEDWGA LX</t>
+  </si>
+  <si>
+    <t>Aims to achieve long termcapital growth. The fund invests in an actively managed portfolio of companies that have their head office or exercise a predominant part of their activity in Europe. At last 50% of the assets will be invested with ESG criteria.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,9 +102,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1314"/>
+  <dimension ref="A1:F1314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -427,7 +452,7 @@
     <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,13 +462,22 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>45813</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>45812</v>
       </c>
@@ -451,10 +485,19 @@
         <v>2.5289999999999999</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>45811</v>
       </c>
@@ -462,7 +505,7 @@
         <v>2.5089999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>45810</v>
       </c>
@@ -470,7 +513,7 @@
         <v>2.512</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>45807</v>
       </c>
@@ -478,7 +521,7 @@
         <v>2.5209999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>45806</v>
       </c>
@@ -486,7 +529,7 @@
         <v>2.5190000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>45805</v>
       </c>
@@ -494,7 +537,7 @@
         <v>2.5169999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>45804</v>
       </c>
@@ -502,7 +545,7 @@
         <v>2.5379999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>45803</v>
       </c>
@@ -510,7 +553,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>45800</v>
       </c>
@@ -518,7 +561,7 @@
         <v>2.5150000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>45799</v>
       </c>
@@ -526,7 +569,7 @@
         <v>2.536</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>45798</v>
       </c>
@@ -534,7 +577,7 @@
         <v>2.5609999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>45797</v>
       </c>
@@ -542,7 +585,7 @@
         <v>2.5609999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>45796</v>
       </c>
@@ -550,7 +593,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>45793</v>
       </c>
